--- a/Kassitische_Personen_Namen.xlsx
+++ b/Kassitische_Personen_Namen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahschier/kassitisch_db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25B337-72F6-D74A-8682-DB048A5F4131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D41014-8CDE-0643-B6E9-AFC8D8CBE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kassitische Analyse" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="730">
   <si>
     <t>Name</t>
   </si>
@@ -1327,6 +1327,894 @@
   </si>
   <si>
     <t>inzu-murudaš</t>
+  </si>
+  <si>
+    <t>išabatal</t>
+  </si>
+  <si>
+    <t>išbi-ula</t>
+  </si>
+  <si>
+    <t>išbi-tilla</t>
+  </si>
+  <si>
+    <t>išib-ḫalu</t>
+  </si>
+  <si>
+    <t>išbi-saḫ</t>
+  </si>
+  <si>
+    <t>išubi</t>
+  </si>
+  <si>
+    <t>izib-ḫalu</t>
+  </si>
+  <si>
+    <t>yanzi-buryaš</t>
+  </si>
+  <si>
+    <t>yanzu-mak..</t>
+  </si>
+  <si>
+    <t>yanzi-mašḫu</t>
+  </si>
+  <si>
+    <t>yanzi</t>
+  </si>
+  <si>
+    <t>yanzu</t>
+  </si>
+  <si>
+    <t>kadašman</t>
+  </si>
+  <si>
+    <t>kadašman-buriaš</t>
+  </si>
+  <si>
+    <t>kadašman-durgu</t>
+  </si>
+  <si>
+    <t>kadašman-ḫarbe</t>
+  </si>
+  <si>
+    <t>kadašman-saḫ</t>
+  </si>
+  <si>
+    <t>kara-ḫardaš</t>
+  </si>
+  <si>
+    <t>kadašman-šiḫu</t>
+  </si>
+  <si>
+    <t>kara-indaš</t>
+  </si>
+  <si>
+    <t>kara-šuqamuna</t>
+  </si>
+  <si>
+    <t>kari-saḫ</t>
+  </si>
+  <si>
+    <t>karzi-apku</t>
+  </si>
+  <si>
+    <t>karzi-yapku</t>
+  </si>
+  <si>
+    <t>karzi-ban</t>
+  </si>
+  <si>
+    <t>karzi-barataš</t>
+  </si>
+  <si>
+    <t>karzi-marattaš</t>
+  </si>
+  <si>
+    <t>kašakkūtum</t>
+  </si>
+  <si>
+    <t>kašakti</t>
+  </si>
+  <si>
+    <t>kašakti-yanzi</t>
+  </si>
+  <si>
+    <t>kašakti-šugab</t>
+  </si>
+  <si>
+    <t>kašti-ban</t>
+  </si>
+  <si>
+    <t>kaštil</t>
+  </si>
+  <si>
+    <t>kaštilen-saḫ</t>
+  </si>
+  <si>
+    <t>kaštilyašu</t>
+  </si>
+  <si>
+    <t>kaštilli</t>
+  </si>
+  <si>
+    <t>katar-saḫ</t>
+  </si>
+  <si>
+    <t>kiladi-marduk</t>
+  </si>
+  <si>
+    <t>kilamdašu</t>
+  </si>
+  <si>
+    <t>kilamdi-buryaš</t>
+  </si>
+  <si>
+    <t>kilamdi-marduk</t>
+  </si>
+  <si>
+    <t>kilamdi-šiḫu</t>
+  </si>
+  <si>
+    <t>kilamdi-šugab</t>
+  </si>
+  <si>
+    <t>kilamdi-ubriyaš</t>
+  </si>
+  <si>
+    <t>kilamdu</t>
+  </si>
+  <si>
+    <t>kilam-saḫ</t>
+  </si>
+  <si>
+    <t>kilandi-buriyaš</t>
+  </si>
+  <si>
+    <t>kilandi-marduk</t>
+  </si>
+  <si>
+    <t>kilandi-ubriyaš</t>
+  </si>
+  <si>
+    <t>kilan-ubriyaš</t>
+  </si>
+  <si>
+    <t>kirigag</t>
+  </si>
+  <si>
+    <t>kirsa</t>
+  </si>
+  <si>
+    <t>kirsam-bula</t>
+  </si>
+  <si>
+    <t>Kirsi</t>
+  </si>
+  <si>
+    <t>kirsiya</t>
+  </si>
+  <si>
+    <t>kirsi-marduk</t>
+  </si>
+  <si>
+    <t>kirsu-mala</t>
+  </si>
+  <si>
+    <t>kissi-ḫarpa</t>
+  </si>
+  <si>
+    <t>kissi</t>
+  </si>
+  <si>
+    <t>kissuk</t>
+  </si>
+  <si>
+    <t>kirza</t>
+  </si>
+  <si>
+    <t>kirziya</t>
+  </si>
+  <si>
+    <t>kizzi-ḫarpe</t>
+  </si>
+  <si>
+    <t>kizzuk</t>
+  </si>
+  <si>
+    <t>kubšiya</t>
+  </si>
+  <si>
+    <t>kubši-nimgir</t>
+  </si>
+  <si>
+    <t>ku-galzu</t>
+  </si>
+  <si>
+    <t>kunanibi</t>
+  </si>
+  <si>
+    <t>kukurmaš</t>
+  </si>
+  <si>
+    <t>kunindi-bugaš</t>
+  </si>
+  <si>
+    <t>kunindu</t>
+  </si>
+  <si>
+    <t>kunudi-buriyaš</t>
+  </si>
+  <si>
+    <t>kunundu-ubriyaš</t>
+  </si>
+  <si>
+    <t>kunundi-ubriyaš</t>
+  </si>
+  <si>
+    <t>kuri-durgu</t>
+  </si>
+  <si>
+    <t>kuri-galzu</t>
+  </si>
+  <si>
+    <t>kuri-yani</t>
+  </si>
+  <si>
+    <t>kurišni</t>
+  </si>
+  <si>
+    <t>kur-galzu</t>
+  </si>
+  <si>
+    <t>kurpa-saḫ</t>
+  </si>
+  <si>
+    <t>kurpa-zaduya</t>
+  </si>
+  <si>
+    <t>kurukše-bugaš</t>
+  </si>
+  <si>
+    <t>kurušni</t>
+  </si>
+  <si>
+    <t>kušši-ḫarpa</t>
+  </si>
+  <si>
+    <t>kuššiya</t>
+  </si>
+  <si>
+    <t>kuššu</t>
+  </si>
+  <si>
+    <t>lutukinda</t>
+  </si>
+  <si>
+    <t>kuzi-mašḫu</t>
+  </si>
+  <si>
+    <t>malab-ḫarbe</t>
+  </si>
+  <si>
+    <t>me-BAR-šugab</t>
+  </si>
+  <si>
+    <t>me-buriyāzi</t>
+  </si>
+  <si>
+    <t>me-dilyašu</t>
+  </si>
+  <si>
+    <t>mē-durgu</t>
+  </si>
+  <si>
+    <t>megila</t>
+  </si>
+  <si>
+    <t>meḫulpi</t>
+  </si>
+  <si>
+    <t>mēnaḫibi</t>
+  </si>
+  <si>
+    <t>mē-satran</t>
+  </si>
+  <si>
+    <t>me-šikme</t>
+  </si>
+  <si>
+    <t>mitiliyāšu</t>
+  </si>
+  <si>
+    <t>meli-buriyaš</t>
+  </si>
+  <si>
+    <t>meli-ḫala</t>
+  </si>
+  <si>
+    <t>meli-ḫarbe</t>
+  </si>
+  <si>
+    <t>meli-ḫarpa</t>
+  </si>
+  <si>
+    <t>meleya</t>
+  </si>
+  <si>
+    <t>meli-marduk</t>
+  </si>
+  <si>
+    <t>melim-saḫ</t>
+  </si>
+  <si>
+    <t>melen-saḫ</t>
+  </si>
+  <si>
+    <t>melien-zaḫ</t>
+  </si>
+  <si>
+    <t>meli-šibarru</t>
+  </si>
+  <si>
+    <t>meli-šiḫu</t>
+  </si>
+  <si>
+    <t>meli-šugab</t>
+  </si>
+  <si>
+    <t>meli-šuqamuna</t>
+  </si>
+  <si>
+    <t>minašuk</t>
+  </si>
+  <si>
+    <t>muḫuški</t>
+  </si>
+  <si>
+    <t>muktaris-saḫ</t>
+  </si>
+  <si>
+    <t>muššini-saḫ</t>
+  </si>
+  <si>
+    <t>nagim-saḫ</t>
+  </si>
+  <si>
+    <t>naḫzi</t>
+  </si>
+  <si>
+    <t>naḫzi-saḫ</t>
+  </si>
+  <si>
+    <t>nanakti</t>
+  </si>
+  <si>
+    <t>nazi-bugaš</t>
+  </si>
+  <si>
+    <t>nazi-buryaš</t>
+  </si>
+  <si>
+    <t>nazi-enlil</t>
+  </si>
+  <si>
+    <t>nazi-marduk</t>
+  </si>
+  <si>
+    <t>nazi-maruttaš</t>
+  </si>
+  <si>
+    <t>nazi-murutaš</t>
+  </si>
+  <si>
+    <t>nazi-šiḫu</t>
+  </si>
+  <si>
+    <t>nazi-šuqamuna</t>
+  </si>
+  <si>
+    <t>nazūtum</t>
+  </si>
+  <si>
+    <t>nibiya-saḫ</t>
+  </si>
+  <si>
+    <t>nibi-šiḫu</t>
+  </si>
+  <si>
+    <t>nimbirab-AN</t>
+  </si>
+  <si>
+    <t>nimbirabi</t>
+  </si>
+  <si>
+    <t>nimgirabi-buryaš</t>
+  </si>
+  <si>
+    <t>nimgirabi-marduk</t>
+  </si>
+  <si>
+    <t>nimgirabi-saḫ</t>
+  </si>
+  <si>
+    <t>nimgira-ḫarbe</t>
+  </si>
+  <si>
+    <t>nimgirabu</t>
+  </si>
+  <si>
+    <t>ninkirab-saḫ</t>
+  </si>
+  <si>
+    <t>NI-NI-ašriqa</t>
+  </si>
+  <si>
+    <t>NI-NI-išriga</t>
+  </si>
+  <si>
+    <t>nirakri</t>
+  </si>
+  <si>
+    <t>nula-saḫi</t>
+  </si>
+  <si>
+    <t>nul-saḫi</t>
+  </si>
+  <si>
+    <t>nunakti</t>
+  </si>
+  <si>
+    <t>nuniyaši</t>
+  </si>
+  <si>
+    <t>paipur</t>
+  </si>
+  <si>
+    <t>paip-purni</t>
+  </si>
+  <si>
+    <t>pakki-saḫ</t>
+  </si>
+  <si>
+    <t>pilandu</t>
+  </si>
+  <si>
+    <t>qalduk</t>
+  </si>
+  <si>
+    <t>qalzu</t>
+  </si>
+  <si>
+    <t>qarintaš</t>
+  </si>
+  <si>
+    <t>quna</t>
+  </si>
+  <si>
+    <t>qunanibi</t>
+  </si>
+  <si>
+    <t>radbaš</t>
+  </si>
+  <si>
+    <t>RU-šibarra</t>
+  </si>
+  <si>
+    <t>sabiḫari</t>
+  </si>
+  <si>
+    <t>sibar-bugaš</t>
+  </si>
+  <si>
+    <t>sibbar-šugab</t>
+  </si>
+  <si>
+    <t>sikanta</t>
+  </si>
+  <si>
+    <t>ziqata</t>
+  </si>
+  <si>
+    <t>sikte</t>
+  </si>
+  <si>
+    <t>zikte</t>
+  </si>
+  <si>
+    <t>sikte-bugašu</t>
+  </si>
+  <si>
+    <t>simbar-šiḫu</t>
+  </si>
+  <si>
+    <t>simburu</t>
+  </si>
+  <si>
+    <t>siriya</t>
+  </si>
+  <si>
+    <t>sirišaš</t>
+  </si>
+  <si>
+    <t>suḫur-galdu</t>
+  </si>
+  <si>
+    <t>sumē</t>
+  </si>
+  <si>
+    <t>suraš</t>
+  </si>
+  <si>
+    <t>šabburni</t>
+  </si>
+  <si>
+    <t>šaddagmi</t>
+  </si>
+  <si>
+    <t>šad-indar</t>
+  </si>
+  <si>
+    <t>šad-mašḫu</t>
+  </si>
+  <si>
+    <t>šadmezi-bugaš</t>
+  </si>
+  <si>
+    <t>šagarā</t>
+  </si>
+  <si>
+    <t>šagarkte</t>
+  </si>
+  <si>
+    <t>šagarakti-enlil</t>
+  </si>
+  <si>
+    <t>šagarakti-saḫ</t>
+  </si>
+  <si>
+    <t>šagarakti-suriyaš</t>
+  </si>
+  <si>
+    <t>šagaraktu</t>
+  </si>
+  <si>
+    <t>šagarakti</t>
+  </si>
+  <si>
+    <t>šandamme</t>
+  </si>
+  <si>
+    <t>šara-zana</t>
+  </si>
+  <si>
+    <t>šari-zana</t>
+  </si>
+  <si>
+    <t>šati-galdu</t>
+  </si>
+  <si>
+    <t>šen-saḫ</t>
+  </si>
+  <si>
+    <t>šian-saḫ</t>
+  </si>
+  <si>
+    <t>šien-saḫ</t>
+  </si>
+  <si>
+    <t>šilab-saḫ</t>
+  </si>
+  <si>
+    <t>šili</t>
+  </si>
+  <si>
+    <t>šiliya</t>
+  </si>
+  <si>
+    <t>šimdi-buriyaš</t>
+  </si>
+  <si>
+    <t>šimdi-šiḫu</t>
+  </si>
+  <si>
+    <t>šimdi-šuqamuna</t>
+  </si>
+  <si>
+    <t>šimdi-ubriyaš</t>
+  </si>
+  <si>
+    <t>šindi-buriyaš</t>
+  </si>
+  <si>
+    <t>šindi-enlil</t>
+  </si>
+  <si>
+    <t>šindi-šiḫu</t>
+  </si>
+  <si>
+    <t>šindi-ubriyaš</t>
+  </si>
+  <si>
+    <t>šindu-buriyaš</t>
+  </si>
+  <si>
+    <t>šinta-buriyaš</t>
+  </si>
+  <si>
+    <t>širidu</t>
+  </si>
+  <si>
+    <t>širinda</t>
+  </si>
+  <si>
+    <t>širišti</t>
+  </si>
+  <si>
+    <t>širišti-enlil</t>
+  </si>
+  <si>
+    <t>širišti-šiḫu</t>
+  </si>
+  <si>
+    <t>šrišti-šuqamuna</t>
+  </si>
+  <si>
+    <t>šrini-saḫ</t>
+  </si>
+  <si>
+    <t>šualiya</t>
+  </si>
+  <si>
+    <t>šubani-saḫ</t>
+  </si>
+  <si>
+    <t>šuhila</t>
+  </si>
+  <si>
+    <t>šuḫuli-šugab</t>
+  </si>
+  <si>
+    <t>šumaliya</t>
+  </si>
+  <si>
+    <t>šupa-ḫali</t>
+  </si>
+  <si>
+    <t>šuri-ḫarpa</t>
+  </si>
+  <si>
+    <t>šuta-ḫali</t>
+  </si>
+  <si>
+    <t>šuzigaš</t>
+  </si>
+  <si>
+    <t>tabašini-saḫ</t>
+  </si>
+  <si>
+    <t>takuša-ḫarbe</t>
+  </si>
+  <si>
+    <t>tamda-saḫ</t>
+  </si>
+  <si>
+    <t>tamdi-saḫ</t>
+  </si>
+  <si>
+    <t>tamta-zina</t>
+  </si>
+  <si>
+    <t>tamti-satran</t>
+  </si>
+  <si>
+    <t>tamti-zina</t>
+  </si>
+  <si>
+    <t>taramdi-saḫ</t>
+  </si>
+  <si>
+    <t>tarma-ḫarbe</t>
+  </si>
+  <si>
+    <t>tarwa-saḫ</t>
+  </si>
+  <si>
+    <t>tiyam-ḫarbe</t>
+  </si>
+  <si>
+    <t>tiyamma-ḫarbe</t>
+  </si>
+  <si>
+    <t>tiliši-saḫ</t>
+  </si>
+  <si>
+    <t>tipna-mele</t>
+  </si>
+  <si>
+    <t>tipnušur</t>
+  </si>
+  <si>
+    <t>tiptakzi</t>
+  </si>
+  <si>
+    <t>tuni-mašḫu</t>
+  </si>
+  <si>
+    <t>ubrutu</t>
+  </si>
+  <si>
+    <t>udašaš</t>
+  </si>
+  <si>
+    <t>udda-saḫ</t>
+  </si>
+  <si>
+    <t>uddi-saḫ</t>
+  </si>
+  <si>
+    <t>uttazzina</t>
+  </si>
+  <si>
+    <t>utti-KA.DI</t>
+  </si>
+  <si>
+    <t>uttizana</t>
+  </si>
+  <si>
+    <t>uggiea</t>
+  </si>
+  <si>
+    <t>Ugni-saḫ</t>
+  </si>
+  <si>
+    <t>ugišiya-saḫ</t>
+  </si>
+  <si>
+    <t>uki-saḫ</t>
+  </si>
+  <si>
+    <t>ukin-saḫ</t>
+  </si>
+  <si>
+    <t>ula-gisuk</t>
+  </si>
+  <si>
+    <t>ulam-buriyaš</t>
+  </si>
+  <si>
+    <t>ula-buriyaš</t>
+  </si>
+  <si>
+    <t>ulam-ḫala</t>
+  </si>
+  <si>
+    <t>ulam-ḫarbe</t>
+  </si>
+  <si>
+    <t>ula-saḫ</t>
+  </si>
+  <si>
+    <t>ulan-šikme</t>
+  </si>
+  <si>
+    <t>ula-zana</t>
+  </si>
+  <si>
+    <t>uni-saḫ</t>
+  </si>
+  <si>
+    <t>urban-saḫ</t>
+  </si>
+  <si>
+    <t>urpan-buriyaš</t>
+  </si>
+  <si>
+    <t>urpaea</t>
+  </si>
+  <si>
+    <t>urpa-marduk</t>
+  </si>
+  <si>
+    <t>urpa-nibi</t>
+  </si>
+  <si>
+    <t>urpaši-mašḫu</t>
+  </si>
+  <si>
+    <t>uršigurumaš</t>
+  </si>
+  <si>
+    <t>urzi-buriyaš</t>
+  </si>
+  <si>
+    <t>urzigurumaš</t>
+  </si>
+  <si>
+    <t>usibi-enlil</t>
+  </si>
+  <si>
+    <t>usub-šiḫu</t>
+  </si>
+  <si>
+    <t>ueš-ḫala</t>
+  </si>
+  <si>
+    <t>ušbi-saḫ</t>
+  </si>
+  <si>
+    <t>ušbula</t>
+  </si>
+  <si>
+    <t>ušpi-saḫ</t>
+  </si>
+  <si>
+    <t>ušši</t>
+  </si>
+  <si>
+    <t>uziba</t>
+  </si>
+  <si>
+    <t>uzi-BAR-šugab</t>
+  </si>
+  <si>
+    <t>uzibi</t>
+  </si>
+  <si>
+    <t>uzibya</t>
+  </si>
+  <si>
+    <t>uzib-enlil</t>
+  </si>
+  <si>
+    <t>uzib-šiḫu</t>
+  </si>
+  <si>
+    <t>uzibu</t>
+  </si>
+  <si>
+    <t>uzi-buriyaš</t>
+  </si>
+  <si>
+    <t>uziya</t>
+  </si>
+  <si>
+    <t>uziyašu</t>
+  </si>
+  <si>
+    <t>zikte-bugašu</t>
+  </si>
+  <si>
+    <t>ziwir-galtum</t>
+  </si>
+  <si>
+    <t>albadi-saḫ</t>
+  </si>
+  <si>
+    <t>burra-ištaran</t>
+  </si>
+  <si>
+    <t>Hah-Sugab</t>
+  </si>
+  <si>
+    <t>Hudi-jazi</t>
+  </si>
+  <si>
+    <t>Sadda-gan-im-ti</t>
+  </si>
+  <si>
+    <t>šad-iabuti</t>
+  </si>
+  <si>
+    <t>ša-inbu</t>
+  </si>
+  <si>
+    <t>ula-gindar</t>
+  </si>
+  <si>
+    <t>tarma-abu</t>
+  </si>
+  <si>
+    <t>tarma-ḫudin-abu</t>
   </si>
 </sst>
 </file>
@@ -1596,11 +2484,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E604"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="291" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
+      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B605" sqref="B605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1608,7 +2496,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +2513,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
@@ -1636,7 +2524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>184</v>
       </c>
@@ -1647,7 +2535,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>186</v>
       </c>
@@ -1658,7 +2546,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1666,7 +2554,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>189</v>
       </c>
@@ -1675,12 +2563,12 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -1691,7 +2579,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1705,7 +2593,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +2604,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +2615,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +2626,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +2634,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +2642,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1762,7 +2650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +2658,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +2666,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1786,7 +2674,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1794,7 +2682,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +2690,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +2698,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +2706,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +2714,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +2728,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1848,7 +2736,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1859,7 +2747,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1873,7 +2761,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +2775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1901,7 +2789,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1915,7 +2803,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1929,7 +2817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1943,7 +2831,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1957,7 +2845,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +2856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1976,12 +2864,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,7 +2883,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -2009,12 +2897,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,7 +2913,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -2036,7 +2924,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2935,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,12 +2946,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2962,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
@@ -2082,7 +2970,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
@@ -2093,7 +2981,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
@@ -2104,7 +2992,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2112,7 +3000,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2123,7 +3011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -2134,7 +3022,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +3030,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -2153,7 +3041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2164,7 +3052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2172,7 +3060,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2180,7 +3068,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
@@ -2191,7 +3079,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
@@ -2202,7 +3090,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>237</v>
       </c>
@@ -2210,7 +3098,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>51</v>
       </c>
@@ -2221,17 +3109,17 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
@@ -2239,32 +3127,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>60</v>
       </c>
@@ -2275,7 +3163,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>61</v>
       </c>
@@ -2286,12 +3174,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2299,7 +3187,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2307,7 +3195,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2321,7 +3209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>66</v>
       </c>
@@ -2332,7 +3220,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>67</v>
       </c>
@@ -2343,7 +3231,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>68</v>
       </c>
@@ -2354,7 +3242,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>69</v>
       </c>
@@ -2362,7 +3250,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
@@ -2370,7 +3258,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
@@ -2378,7 +3266,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>72</v>
       </c>
@@ -2389,7 +3277,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -2397,7 +3285,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>73</v>
       </c>
@@ -2405,7 +3293,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>74</v>
       </c>
@@ -2416,7 +3304,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -2427,7 +3315,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2438,7 +3326,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>76</v>
       </c>
@@ -2449,7 +3337,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
@@ -2463,7 +3351,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>77</v>
       </c>
@@ -2474,7 +3362,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>78</v>
       </c>
@@ -2482,7 +3370,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>79</v>
       </c>
@@ -2490,7 +3378,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2498,7 +3386,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>81</v>
       </c>
@@ -2506,7 +3394,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>82</v>
       </c>
@@ -2517,7 +3405,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>83</v>
       </c>
@@ -2528,7 +3416,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
@@ -2539,7 +3427,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>85</v>
       </c>
@@ -2547,7 +3435,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>86</v>
       </c>
@@ -2558,7 +3446,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>87</v>
       </c>
@@ -2569,7 +3457,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>88</v>
       </c>
@@ -2580,7 +3468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>89</v>
       </c>
@@ -2588,7 +3476,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>90</v>
       </c>
@@ -2596,7 +3484,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>91</v>
       </c>
@@ -2604,7 +3492,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
@@ -2615,7 +3503,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>93</v>
       </c>
@@ -2626,7 +3514,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>93</v>
       </c>
@@ -2637,7 +3525,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>94</v>
       </c>
@@ -2648,7 +3536,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>95</v>
       </c>
@@ -2659,7 +3547,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>96</v>
       </c>
@@ -2670,12 +3558,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>98</v>
       </c>
@@ -2683,7 +3571,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>99</v>
       </c>
@@ -2694,7 +3582,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>100</v>
       </c>
@@ -2705,7 +3593,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>101</v>
       </c>
@@ -2713,7 +3601,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
@@ -2724,7 +3612,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>103</v>
       </c>
@@ -2738,12 +3626,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>105</v>
       </c>
@@ -2754,7 +3642,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>106</v>
       </c>
@@ -2765,12 +3653,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>108</v>
       </c>
@@ -2781,7 +3669,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>109</v>
       </c>
@@ -2789,7 +3677,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>110</v>
       </c>
@@ -2800,7 +3688,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>111</v>
       </c>
@@ -2814,7 +3702,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>112</v>
       </c>
@@ -2822,27 +3710,27 @@
         <v>292</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>117</v>
       </c>
@@ -2850,12 +3738,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>119</v>
       </c>
@@ -2866,7 +3754,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>120</v>
       </c>
@@ -2877,7 +3765,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>121</v>
       </c>
@@ -2888,7 +3776,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>122</v>
       </c>
@@ -2896,7 +3784,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>123</v>
       </c>
@@ -2904,7 +3792,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>124</v>
       </c>
@@ -2912,12 +3800,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>126</v>
       </c>
@@ -2925,7 +3813,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>127</v>
       </c>
@@ -2933,7 +3821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>128</v>
       </c>
@@ -2941,7 +3829,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>129</v>
       </c>
@@ -2949,7 +3837,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>130</v>
       </c>
@@ -2957,7 +3845,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>131</v>
       </c>
@@ -2968,7 +3856,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>132</v>
       </c>
@@ -2979,7 +3867,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>133</v>
       </c>
@@ -2990,7 +3878,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>134</v>
       </c>
@@ -3001,7 +3889,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>135</v>
       </c>
@@ -3012,7 +3900,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>136</v>
       </c>
@@ -3023,7 +3911,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>137</v>
       </c>
@@ -3031,7 +3919,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>138</v>
       </c>
@@ -3042,7 +3930,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>139</v>
       </c>
@@ -3050,7 +3938,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>140</v>
       </c>
@@ -3058,7 +3946,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>141</v>
       </c>
@@ -3069,7 +3957,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>142</v>
       </c>
@@ -3080,7 +3968,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>143</v>
       </c>
@@ -3088,7 +3976,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>144</v>
       </c>
@@ -3096,7 +3984,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>145</v>
       </c>
@@ -3110,12 +3998,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>147</v>
       </c>
@@ -3129,7 +4017,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>148</v>
       </c>
@@ -3137,7 +4025,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>149</v>
       </c>
@@ -3145,7 +4033,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>150</v>
       </c>
@@ -3156,7 +4044,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>151</v>
       </c>
@@ -3167,12 +4055,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>153</v>
       </c>
@@ -3183,22 +4071,22 @@
         <v>322</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>157</v>
       </c>
@@ -3209,7 +4097,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -3220,7 +4108,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>158</v>
       </c>
@@ -3231,7 +4119,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>159</v>
       </c>
@@ -3239,7 +4127,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>160</v>
       </c>
@@ -3247,7 +4135,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>161</v>
       </c>
@@ -3258,7 +4146,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>160</v>
       </c>
@@ -3269,7 +4157,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>162</v>
       </c>
@@ -3280,7 +4168,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>163</v>
       </c>
@@ -3291,7 +4179,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>164</v>
       </c>
@@ -3302,7 +4190,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>165</v>
       </c>
@@ -3313,7 +4201,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>166</v>
       </c>
@@ -3324,7 +4212,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>167</v>
       </c>
@@ -3335,7 +4223,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>168</v>
       </c>
@@ -3349,7 +4237,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>169</v>
       </c>
@@ -3357,7 +4245,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>170</v>
       </c>
@@ -3371,12 +4259,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>172</v>
       </c>
@@ -3387,7 +4275,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>173</v>
       </c>
@@ -3395,7 +4283,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>174</v>
       </c>
@@ -3406,12 +4294,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>176</v>
       </c>
@@ -3900,6 +4788,1591 @@
     <row r="287" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
